--- a/Lg.EducationPlatform.Web/Template/导入模板.xlsx
+++ b/Lg.EducationPlatform.Web/Template/导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <t>民族</t>
   </si>
   <si>
+    <t>籍贯</t>
+  </si>
+  <si>
     <t>身份证号</t>
   </si>
   <si>
@@ -46,9 +49,6 @@
     <t>专业</t>
   </si>
   <si>
-    <t>免试条件</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
@@ -61,6 +61,9 @@
     <t>汉族</t>
   </si>
   <si>
+    <t>湖南省长沙市</t>
+  </si>
+  <si>
     <t>430481198810237223</t>
   </si>
   <si>
@@ -80,9 +83,6 @@
   </si>
   <si>
     <t>工程财务管理</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>李四</t>
@@ -148,11 +148,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -171,15 +171,35 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF44546A"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -190,7 +210,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
     </font>
@@ -203,26 +261,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color rgb="FF44546A"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF44546A"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Helv"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="0"/>
     </font>
@@ -235,33 +288,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color rgb="FF44546A"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
     </font>
@@ -272,39 +300,6 @@
       <name val="等线"/>
       <charset val="0"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -321,19 +316,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBDBDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFBDD7EE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEDEDED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9C9C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8CBAD"/>
+        <fgColor rgb="FFFFF2CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,157 +490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDBDBDB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEDEDED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9D08E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8EA9DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9C9C9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9BC2E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4B084"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,7 +536,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color rgb="FFA2B8E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color rgb="FF4472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,24 +606,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFA2B8E1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF4472C4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF4472C4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,41 +629,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF4472C4"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF4472C4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -642,150 +637,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -820,9 +815,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1151,22 +1143,22 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.30833333333333" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.30769230769231" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.2666666666667" customWidth="1"/>
-    <col min="2" max="2" width="5.54166666666667" customWidth="1"/>
-    <col min="4" max="4" width="27.925" customWidth="1"/>
-    <col min="5" max="5" width="19.7333333333333" customWidth="1"/>
-    <col min="6" max="6" width="11.8833333333333" customWidth="1"/>
-    <col min="7" max="7" width="39.875" customWidth="1"/>
-    <col min="8" max="8" width="15.575" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="21.075" customWidth="1"/>
-    <col min="11" max="11" width="16.4583333333333" customWidth="1"/>
-    <col min="12" max="12" width="16.85" customWidth="1"/>
+    <col min="1" max="1" width="10.2692307692308" customWidth="1"/>
+    <col min="2" max="2" width="5.53846153846154" customWidth="1"/>
+    <col min="4" max="4" width="16.5384615384615" customWidth="1"/>
+    <col min="5" max="5" width="27.9230769230769" customWidth="1"/>
+    <col min="6" max="6" width="19.7307692307692" customWidth="1"/>
+    <col min="7" max="7" width="11.8846153846154" customWidth="1"/>
+    <col min="8" max="8" width="39.8769230769231" customWidth="1"/>
+    <col min="9" max="9" width="15.5769230769231" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="21.0769230769231" customWidth="1"/>
+    <col min="12" max="12" width="16.8538461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:12">
@@ -1182,25 +1174,25 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="11" t="s">
@@ -1217,28 +1209,28 @@
       <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="7"/>
@@ -1253,28 +1245,30 @@
       <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="12"/>
       <c r="L3" s="7"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:12">
@@ -1287,28 +1281,30 @@
       <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="12"/>
       <c r="L4" s="7"/>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:12">
@@ -1321,28 +1317,30 @@
       <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="12"/>
       <c r="L5" s="7"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:12">
@@ -1355,28 +1353,30 @@
       <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="12"/>
       <c r="L6" s="7"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:12">
@@ -1389,28 +1389,30 @@
       <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="12"/>
       <c r="L7" s="7"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:12">
@@ -1423,28 +1425,30 @@
       <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="12"/>
       <c r="L8" s="7"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:12">
@@ -1457,28 +1461,30 @@
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="12"/>
       <c r="L9" s="7"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:12">
@@ -1491,28 +1497,30 @@
       <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="12"/>
       <c r="L10" s="7"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:12">
@@ -1525,28 +1533,30 @@
       <c r="C11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="12"/>
       <c r="L11" s="7"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:12">
@@ -1559,28 +1569,30 @@
       <c r="C12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="12"/>
+      <c r="K12" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="L12" s="7"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:12">
@@ -1593,28 +1605,30 @@
       <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="12"/>
+      <c r="K13" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="L13" s="7"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:12">
@@ -1627,29 +1641,29 @@
       <c r="C14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="L14" s="7"/>
     </row>
@@ -1658,13 +1672,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
       <formula1>"无,初中,高中,中专,大专在读,大专毕业"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
       <formula1>"专科,专升本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
       <formula1>"交通土建工程,工程财务管理,汽车运用工程"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Lg.EducationPlatform.Web/Template/导入模板.xlsx
+++ b/Lg.EducationPlatform.Web/Template/导入模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>姓名</t>
   </si>
@@ -76,7 +76,7 @@
     <t>湖南省长沙市雨花区劳动中路1号</t>
   </si>
   <si>
-    <t>无</t>
+    <t>初中及以下</t>
   </si>
   <si>
     <t>专升本</t>
@@ -88,7 +88,7 @@
     <t>李四</t>
   </si>
   <si>
-    <t>高中</t>
+    <t>高中或中专</t>
   </si>
   <si>
     <t>专科</t>
@@ -106,7 +106,7 @@
     <t>易建联</t>
   </si>
   <si>
-    <t>中专</t>
+    <t>大专</t>
   </si>
   <si>
     <t>汽车运用工程</t>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>石玉林</t>
-  </si>
-  <si>
-    <t>初中</t>
   </si>
   <si>
     <t>钟华</t>
@@ -147,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -184,7 +181,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF44546A"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
     </font>
@@ -203,14 +227,27 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color rgb="FF44546A"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
     </font>
@@ -223,7 +260,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
     </font>
@@ -235,27 +278,15 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Helv"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
     </font>
@@ -266,40 +297,6 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color rgb="FF44546A"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -322,13 +319,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9C9C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBDBDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF5B9BD5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDBDBDB"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,157 +451,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEDED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFBDD7EE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEDEDED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9BC2E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9C9C9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8CBAD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4B084"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8EA9DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE699"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6E0B4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,15 +533,17 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FFA2B8E1"/>
+        <color rgb="FF4472C4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color rgb="FF4472C4"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF4472C4"/>
       </bottom>
       <diagonal/>
@@ -568,8 +567,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color rgb="FFA2B8E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,28 +603,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF4472C4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color rgb="FF4472C4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,148 +634,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1142,8 +1139,8 @@
   <sheetPr/>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.30769230769231" defaultRowHeight="14.25" customHeight="1"/>
@@ -1441,7 +1438,7 @@
         <v>19</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>21</v>
@@ -1453,7 +1450,7 @@
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:12">
       <c r="A9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -1477,7 +1474,7 @@
         <v>19</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>21</v>
@@ -1489,7 +1486,7 @@
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:12">
       <c r="A10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>13</v>
@@ -1525,7 +1522,7 @@
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:12">
       <c r="A11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>13</v>
@@ -1561,7 +1558,7 @@
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:12">
       <c r="A12" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>13</v>
@@ -1597,7 +1594,7 @@
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:12">
       <c r="A13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
@@ -1633,7 +1630,7 @@
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:12">
       <c r="A14" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>28</v>
@@ -1668,12 +1665,15 @@
       <c r="L14" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
+      <formula1>"群众,党员,无党派人士,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
-      <formula1>"无,初中,高中,中专,大专在读,大专毕业"</formula1>
+      <formula1>"初中及以下,高中或中专,大专,本科及以上"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
       <formula1>"专科,专升本"</formula1>
